--- a/data/input/absenteeism_data_11.xlsx
+++ b/data/input/absenteeism_data_11.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>72201</v>
+        <v>56751</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Felipe Carvalho</t>
+          <t>Alexia Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45090</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>3407.27</v>
+        <v>6883.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>82666</v>
+        <v>81956</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vicente Cardoso</t>
+          <t>Sr. Samuel Barros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>9700.43</v>
+        <v>6264.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72237</v>
+        <v>92490</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Gonçalves</t>
+          <t>Luiz Otávio Gonçalves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>12443.69</v>
+        <v>9505.629999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64116</v>
+        <v>82878</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Giovanna Alves</t>
+          <t>Ana Laura Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,55 +577,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>8716.16</v>
+        <v>2664.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79470</v>
+        <v>61067</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Renan da Paz</t>
+          <t>Benício Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>10733.85</v>
+        <v>11487.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3703</v>
+        <v>89448</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gabrielly Fernandes</t>
+          <t>Emanuella Peixoto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>7258.6</v>
+        <v>8526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>92636</v>
+        <v>76809</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Luiza Moreira</t>
+          <t>Igor Sales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>9300.34</v>
+        <v>8243.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>50068</v>
+        <v>27245</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isaac Correia</t>
+          <t>Juliana Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>4716.16</v>
+        <v>2987.69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74403</v>
+        <v>79886</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Rodrigues</t>
+          <t>Luiza Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>7555.19</v>
+        <v>6513.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61282</v>
+        <v>76064</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Elisa Campos</t>
+          <t>Esther da Mota</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>11573.86</v>
+        <v>3847.01</v>
       </c>
     </row>
   </sheetData>
